--- a/enrollment2006-2013.xlsx
+++ b/enrollment2006-2013.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>program</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>EE</t>
+  </si>
+  <si>
+    <t>CMSC BS</t>
+  </si>
+  <si>
+    <t>CMSC PhD</t>
+  </si>
+  <si>
+    <t>CMSC MS</t>
+  </si>
+  <si>
+    <t>CMSC ND</t>
   </si>
 </sst>
 </file>
@@ -1750,6 +1762,420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>enrol.txt!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMSC BS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>enrol.txt!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>enrol.txt!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>606.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>548.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>646.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>796.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>867.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>enrol.txt!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMSC PhD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>enrol.txt!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>enrol.txt!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>70.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>enrol.txt!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMSC MS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>enrol.txt!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>enrol.txt!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>92.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>enrol.txt!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMSC ND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>enrol.txt!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>enrol.txt!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2093015976"/>
+        <c:axId val="-2093013896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2093015976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093013896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2093013896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093015976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1841,6 +2267,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2173,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2221,8 +2677,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
+      <c r="A4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="4">
         <v>606</v>
@@ -2377,8 +2833,8 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="13" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
+      <c r="A11" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>69</v>
@@ -2533,8 +2989,8 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="13" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
+      <c r="A18" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="4">
         <v>61</v>
@@ -2806,8 +3262,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" ht="13" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>2</v>
+      <c r="A29" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="4">
         <v>7</v>

--- a/enrollment2006-2013.xlsx
+++ b/enrollment2006-2013.xlsx
@@ -1776,6 +1776,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>CMSC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" baseline="0"/>
+              <a:t> students 2006-2013</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="3200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.065655416943364"/>
+          <c:y val="0.0763582966226138"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2630,7 +2661,7 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
